--- a/Ligas/Liga_finlandia_2025.xlsx
+++ b/Ligas/Liga_finlandia_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T92"/>
+  <dimension ref="A1:T98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7087,6 +7087,438 @@
         </is>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Kooteepee</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Inter Turku</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>2</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1342756</v>
+      </c>
+      <c r="G93" t="n">
+        <v>4</v>
+      </c>
+      <c r="H93" t="n">
+        <v>11</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>2</v>
+      </c>
+      <c r="P93" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>VPS</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>KuPS</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1342757</v>
+      </c>
+      <c r="G94" t="n">
+        <v>4</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>SJK</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Gnistan</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>3</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1342759</v>
+      </c>
+      <c r="G95" t="n">
+        <v>9</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>3</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>HJK helsinki</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>AC Oulu</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>3</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1342760</v>
+      </c>
+      <c r="G96" t="n">
+        <v>4</v>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>3</v>
+      </c>
+      <c r="P96" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>FF Jaro</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Ilves</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1342758</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="n">
+        <v>17</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>36%</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Mariehamn</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Haka</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1342761</v>
+      </c>
+      <c r="G98" t="n">
+        <v>10</v>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>6</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Ligas/Liga_finlandia_2025.xlsx
+++ b/Ligas/Liga_finlandia_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Desktop\ligas_datas\rockongo_web\Ligas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37007C46-B544-4C94-A54E-80AD88A1F050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AEF1E3-0CF9-44E3-86DC-E5D8B1C0F506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="98">
   <si>
     <t>Fecha</t>
   </si>
@@ -232,12 +232,6 @@
     <t>2025-07-01</t>
   </si>
   <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>2025-07-02</t>
   </si>
   <si>
@@ -308,6 +302,18 @@
   </si>
   <si>
     <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-16</t>
+  </si>
+  <si>
+    <t>2025-08-17</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
   </si>
 </sst>
 </file>
@@ -670,16 +676,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y115"/>
+  <dimension ref="A1:Y121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="W116" sqref="W116:Y122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -4475,7 +4478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -4534,7 +4537,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -4593,7 +4596,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -4652,7 +4655,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -4711,7 +4714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -4770,7 +4773,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -4829,7 +4832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -4888,7 +4891,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>67</v>
       </c>
@@ -4947,7 +4950,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -5006,7 +5009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -5065,7 +5068,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>68</v>
       </c>
@@ -5124,7 +5127,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>68</v>
       </c>
@@ -5183,7 +5186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>68</v>
       </c>
@@ -5242,7 +5245,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>69</v>
       </c>
@@ -5300,16 +5303,10 @@
       <c r="S78" t="s">
         <v>28</v>
       </c>
-      <c r="X78" t="s">
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>70</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>72</v>
       </c>
       <c r="B79" t="s">
         <v>27</v>
@@ -5365,22 +5362,10 @@
       <c r="S79" t="s">
         <v>31</v>
       </c>
-      <c r="V79">
-        <v>61</v>
-      </c>
-      <c r="W79">
-        <v>39</v>
-      </c>
-      <c r="X79" t="s">
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>70</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>72</v>
       </c>
       <c r="B80" t="s">
         <v>32</v>
@@ -5436,16 +5421,10 @@
       <c r="S80" t="s">
         <v>31</v>
       </c>
-      <c r="X80" t="s">
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>70</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>72</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
@@ -5501,16 +5480,10 @@
       <c r="S81" t="s">
         <v>28</v>
       </c>
-      <c r="X81" t="s">
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>70</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>72</v>
       </c>
       <c r="B82" t="s">
         <v>34</v>
@@ -5566,16 +5539,10 @@
       <c r="S82" t="s">
         <v>36</v>
       </c>
-      <c r="X82" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y82" t="s">
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>73</v>
       </c>
       <c r="B83" t="s">
         <v>33</v>
@@ -5631,16 +5598,10 @@
       <c r="S83" t="s">
         <v>36</v>
       </c>
-      <c r="X83" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B84" t="s">
         <v>38</v>
@@ -5696,16 +5657,10 @@
       <c r="S84" t="s">
         <v>36</v>
       </c>
-      <c r="X84" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B85" t="s">
         <v>32</v>
@@ -5761,16 +5716,10 @@
       <c r="S85" t="s">
         <v>31</v>
       </c>
-      <c r="X85" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B86" t="s">
         <v>30</v>
@@ -5826,16 +5775,10 @@
       <c r="S86" t="s">
         <v>36</v>
       </c>
-      <c r="X86" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B87" t="s">
         <v>39</v>
@@ -5891,16 +5834,10 @@
       <c r="S87" t="s">
         <v>31</v>
       </c>
-      <c r="X87" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B88" t="s">
         <v>37</v>
@@ -5956,16 +5893,10 @@
       <c r="S88" t="s">
         <v>36</v>
       </c>
-      <c r="X88" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B89" t="s">
         <v>34</v>
@@ -6021,16 +5952,10 @@
       <c r="S89" t="s">
         <v>28</v>
       </c>
-      <c r="X89" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y89" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B90" t="s">
         <v>40</v>
@@ -6086,16 +6011,10 @@
       <c r="S90" t="s">
         <v>28</v>
       </c>
-      <c r="X90" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y90" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B91" t="s">
         <v>33</v>
@@ -6151,16 +6070,10 @@
       <c r="S91" t="s">
         <v>28</v>
       </c>
-      <c r="X91" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y91" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B92" t="s">
         <v>26</v>
@@ -6216,16 +6129,10 @@
       <c r="S92" t="s">
         <v>28</v>
       </c>
-      <c r="X92" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B93" t="s">
         <v>37</v>
@@ -6281,22 +6188,10 @@
       <c r="S93" t="s">
         <v>36</v>
       </c>
-      <c r="V93">
-        <v>42</v>
-      </c>
-      <c r="W93">
-        <v>58</v>
-      </c>
-      <c r="X93" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y93" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B94" t="s">
         <v>32</v>
@@ -6352,22 +6247,10 @@
       <c r="S94" t="s">
         <v>36</v>
       </c>
-      <c r="V94">
-        <v>54</v>
-      </c>
-      <c r="W94">
-        <v>46</v>
-      </c>
-      <c r="X94" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y94" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B95" t="s">
         <v>38</v>
@@ -6423,22 +6306,10 @@
       <c r="S95" t="s">
         <v>28</v>
       </c>
-      <c r="V95">
-        <v>60</v>
-      </c>
-      <c r="W95">
-        <v>40</v>
-      </c>
-      <c r="X95" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y95" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B96" t="s">
         <v>27</v>
@@ -6494,22 +6365,10 @@
       <c r="S96" t="s">
         <v>28</v>
       </c>
-      <c r="V96">
-        <v>50</v>
-      </c>
-      <c r="W96">
-        <v>50</v>
-      </c>
-      <c r="X96" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y96" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B97" t="s">
         <v>30</v>
@@ -6565,22 +6424,10 @@
       <c r="S97" t="s">
         <v>31</v>
       </c>
-      <c r="V97">
-        <v>36</v>
-      </c>
-      <c r="W97">
-        <v>64</v>
-      </c>
-      <c r="X97" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y97" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B98" t="s">
         <v>29</v>
@@ -6636,22 +6483,10 @@
       <c r="S98" t="s">
         <v>36</v>
       </c>
-      <c r="V98">
-        <v>57</v>
-      </c>
-      <c r="W98">
-        <v>43</v>
-      </c>
-      <c r="X98" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y98" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B99" t="s">
         <v>30</v>
@@ -6707,16 +6542,10 @@
       <c r="S99" t="s">
         <v>36</v>
       </c>
-      <c r="X99" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y99" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B100" t="s">
         <v>39</v>
@@ -6772,22 +6601,10 @@
       <c r="S100" t="s">
         <v>31</v>
       </c>
-      <c r="V100">
-        <v>53</v>
-      </c>
-      <c r="W100">
-        <v>47</v>
-      </c>
-      <c r="X100" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y100" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B101" t="s">
         <v>29</v>
@@ -6843,22 +6660,10 @@
       <c r="S101" t="s">
         <v>31</v>
       </c>
-      <c r="V101">
-        <v>49</v>
-      </c>
-      <c r="W101">
-        <v>51</v>
-      </c>
-      <c r="X101" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y101" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B102" t="s">
         <v>34</v>
@@ -6914,16 +6719,10 @@
       <c r="S102" t="s">
         <v>28</v>
       </c>
-      <c r="X102" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y102" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B103" t="s">
         <v>40</v>
@@ -6979,16 +6778,10 @@
       <c r="S103" t="s">
         <v>31</v>
       </c>
-      <c r="X103" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y103" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B104" t="s">
         <v>32</v>
@@ -7044,16 +6837,10 @@
       <c r="S104" t="s">
         <v>36</v>
       </c>
-      <c r="X104" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y104" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B105" t="s">
         <v>35</v>
@@ -7109,16 +6896,10 @@
       <c r="S105" t="s">
         <v>28</v>
       </c>
-      <c r="X105" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y105" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B106" t="s">
         <v>33</v>
@@ -7174,16 +6955,10 @@
       <c r="S106" t="s">
         <v>31</v>
       </c>
-      <c r="X106" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y106" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B107" t="s">
         <v>38</v>
@@ -7239,16 +7014,10 @@
       <c r="S107" t="s">
         <v>28</v>
       </c>
-      <c r="X107" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y107" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B108" t="s">
         <v>26</v>
@@ -7304,16 +7073,10 @@
       <c r="S108" t="s">
         <v>36</v>
       </c>
-      <c r="X108" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y108" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B109" t="s">
         <v>27</v>
@@ -7369,16 +7132,10 @@
       <c r="S109" t="s">
         <v>31</v>
       </c>
-      <c r="X109" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y109" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B110" t="s">
         <v>34</v>
@@ -7434,16 +7191,10 @@
       <c r="S110" t="s">
         <v>28</v>
       </c>
-      <c r="X110" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y110" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B111" t="s">
         <v>30</v>
@@ -7499,16 +7250,10 @@
       <c r="S111" t="s">
         <v>28</v>
       </c>
-      <c r="X111" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y111" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B112" t="s">
         <v>37</v>
@@ -7564,16 +7309,10 @@
       <c r="S112" t="s">
         <v>31</v>
       </c>
-      <c r="X112" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y112" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B113" t="s">
         <v>29</v>
@@ -7629,16 +7368,10 @@
       <c r="S113" t="s">
         <v>31</v>
       </c>
-      <c r="X113" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y113" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B114" t="s">
         <v>32</v>
@@ -7694,16 +7427,10 @@
       <c r="S114" t="s">
         <v>31</v>
       </c>
-      <c r="X114" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y114" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B115" t="s">
         <v>27</v>
@@ -7759,11 +7486,359 @@
       <c r="S115" t="s">
         <v>28</v>
       </c>
-      <c r="X115" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y115" t="s">
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>94</v>
+      </c>
+      <c r="B116" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" t="s">
+        <v>32</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>1342780</v>
+      </c>
+      <c r="G116">
+        <v>9</v>
+      </c>
+      <c r="H116">
+        <v>7</v>
+      </c>
+      <c r="I116">
+        <v>4</v>
+      </c>
+      <c r="J116">
+        <v>2</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>48</v>
+      </c>
+      <c r="R116">
+        <v>52</v>
+      </c>
+      <c r="S116" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>95</v>
+      </c>
+      <c r="B117" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+      <c r="F117">
+        <v>1342784</v>
+      </c>
+      <c r="G117">
+        <v>4</v>
+      </c>
+      <c r="H117">
+        <v>8</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117">
+        <v>2</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>4</v>
+      </c>
+      <c r="Q117">
+        <v>35</v>
+      </c>
+      <c r="R117">
+        <v>65</v>
+      </c>
+      <c r="S117" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>95</v>
+      </c>
+      <c r="B118" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" t="s">
+        <v>37</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>1342782</v>
+      </c>
+      <c r="G118">
+        <v>4</v>
+      </c>
+      <c r="H118">
+        <v>7</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>2</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>3</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>37</v>
+      </c>
+      <c r="R118">
+        <v>63</v>
+      </c>
+      <c r="S118" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>96</v>
+      </c>
+      <c r="B119" t="s">
+        <v>39</v>
+      </c>
+      <c r="C119" t="s">
+        <v>27</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>1342783</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>12</v>
+      </c>
+      <c r="I119">
+        <v>4</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>2</v>
+      </c>
+      <c r="Q119">
+        <v>29</v>
+      </c>
+      <c r="R119">
         <v>71</v>
+      </c>
+      <c r="S119" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>96</v>
+      </c>
+      <c r="B120" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" t="s">
+        <v>34</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>1342781</v>
+      </c>
+      <c r="G120">
+        <v>9</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>3</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>2</v>
+      </c>
+      <c r="P120">
+        <v>1</v>
+      </c>
+      <c r="Q120">
+        <v>58</v>
+      </c>
+      <c r="R120">
+        <v>42</v>
+      </c>
+      <c r="S120" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>97</v>
+      </c>
+      <c r="B121" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121">
+        <v>1342785</v>
+      </c>
+      <c r="G121">
+        <v>5</v>
+      </c>
+      <c r="H121">
+        <v>4</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>3</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>1</v>
+      </c>
+      <c r="Q121">
+        <v>56</v>
+      </c>
+      <c r="R121">
+        <v>44</v>
+      </c>
+      <c r="S121" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
